--- a/ARQUIVO SID.xlsx
+++ b/ARQUIVO SID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -183,12 +183,12 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,344 +518,278 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>44927</v>
       </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0</v>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11">
+        <v>57.85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>44928</v>
       </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>44929</v>
       </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>44930</v>
       </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
+        <v>116.87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>44931</v>
       </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <v>128.22999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>44932</v>
       </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
+        <v>120.56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>44933</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0</v>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
+        <v>147.74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>44934</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0</v>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
+        <v>110.52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>44935</v>
       </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11">
+        <v>94.77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>44936</v>
       </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
+        <v>120.56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>44937</v>
       </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0</v>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
+        <v>189.43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>44938</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
+        <v>91.67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>44939</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11">
+        <v>114.7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>44940</v>
       </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11">
+        <v>98.89</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>44941</v>
       </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11">
+        <v>83.54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>44942</v>
       </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0</v>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11">
+        <v>48.74</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44943</v>
       </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="11">
-        <v>7</v>
+        <v>99.44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44944</v>
       </c>
-      <c r="B19" s="10">
-        <v>3</v>
-      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="11">
-        <v>17</v>
+        <v>33.590000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>44945</v>
       </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0</v>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11">
+        <v>116.55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44946</v>
       </c>
-      <c r="B21" s="10">
-        <v>2</v>
-      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="11">
-        <v>10</v>
+        <v>100.22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44947</v>
       </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="11">
-        <v>7</v>
+        <v>57.09</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44948</v>
       </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="11">
-        <v>7</v>
+        <v>83.72</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44949</v>
       </c>
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
+      <c r="B24" s="10"/>
       <c r="C24" s="11">
-        <v>7</v>
+        <v>93.32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44950</v>
       </c>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="11">
-        <v>7</v>
+        <v>63.28</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44951</v>
       </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="11">
-        <v>7</v>
+        <v>61.77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44952</v>
       </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="11">
-        <v>7</v>
+        <v>51.37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44953</v>
       </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
+      <c r="B28" s="10"/>
       <c r="C28" s="11">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44954</v>
       </c>
-      <c r="B29" s="10">
-        <v>2</v>
-      </c>
+      <c r="B29" s="10"/>
       <c r="C29" s="11">
-        <v>10</v>
+        <v>73.790000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44955</v>
       </c>
-      <c r="B30" s="10">
-        <v>2</v>
-      </c>
+      <c r="B30" s="10"/>
       <c r="C30" s="11">
-        <v>10</v>
+        <v>53.37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44956</v>
       </c>
-      <c r="B31" s="10">
-        <v>1</v>
-      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="11">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="9">
         <v>44957</v>
       </c>
-      <c r="B32" s="13">
-        <v>0</v>
-      </c>
-      <c r="C32" s="14">
-        <v>0</v>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -864,11 +798,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B17:B32)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>110</v>
+        <v>2549.58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -895,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="A2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,312 +852,144 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>44958</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>7</v>
-      </c>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>44959</v>
-      </c>
-      <c r="B3" s="10">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11">
-        <v>10</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>44960</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>10</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>44961</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11">
-        <v>10</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>44962</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>44963</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
-        <v>7</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>44964</v>
-      </c>
-      <c r="B8" s="10">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>10</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>44965</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>7</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>44966</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>7</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>44967</v>
-      </c>
-      <c r="B11" s="10">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11">
-        <v>10</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>44968</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11">
-        <v>7</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>44969</v>
-      </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>44970</v>
-      </c>
-      <c r="B14" s="10">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11">
-        <v>10</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>44971</v>
-      </c>
-      <c r="B15" s="10">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11">
-        <v>10</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>44972</v>
-      </c>
-      <c r="B16" s="10">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11">
-        <v>10</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>44973</v>
-      </c>
-      <c r="B17" s="10">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11">
-        <v>10</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>44974</v>
-      </c>
-      <c r="B18" s="10">
-        <v>2</v>
-      </c>
-      <c r="C18" s="11">
-        <v>10</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>44975</v>
-      </c>
-      <c r="B19" s="10">
-        <v>2</v>
-      </c>
-      <c r="C19" s="11">
-        <v>10</v>
-      </c>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>44976</v>
-      </c>
-      <c r="B20" s="10">
-        <v>2</v>
-      </c>
-      <c r="C20" s="11">
-        <v>10</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>44977</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0</v>
-      </c>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>44978</v>
-      </c>
-      <c r="B22" s="10">
-        <v>2</v>
-      </c>
-      <c r="C22" s="11">
-        <v>10</v>
-      </c>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>44979</v>
-      </c>
-      <c r="B23" s="10">
-        <v>2</v>
-      </c>
-      <c r="C23" s="11">
-        <v>10</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>44980</v>
-      </c>
-      <c r="B24" s="10">
-        <v>2</v>
-      </c>
-      <c r="C24" s="11">
-        <v>10</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>44981</v>
-      </c>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11">
-        <v>7</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>44982</v>
-      </c>
-      <c r="B26" s="10">
-        <v>2</v>
-      </c>
-      <c r="C26" s="11">
-        <v>10</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
-        <v>44983</v>
-      </c>
-      <c r="B27" s="16">
-        <v>0</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>44984</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0</v>
-      </c>
-      <c r="C28" s="14">
-        <v>0</v>
-      </c>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>44985</v>
-      </c>
-      <c r="B29" s="10">
-        <v>2</v>
-      </c>
-      <c r="C29" s="11">
-        <v>10</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
@@ -1231,11 +997,11 @@
       </c>
       <c r="B30" s="6">
         <f>SUM(B2:B29)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C30" s="7">
         <f>SUM(C2:C29)</f>
-        <v>212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1253,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C32" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,345 +1042,159 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>44986</v>
-      </c>
-      <c r="B2" s="10">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11">
-        <v>10</v>
-      </c>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>44987</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>7</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>44988</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>7</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>44989</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11">
-        <v>10</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>44990</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>7</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>44991</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>44992</v>
-      </c>
-      <c r="B8" s="10">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>10</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>44993</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2</v>
-      </c>
-      <c r="C9" s="11">
-        <v>10</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>44994</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>7</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>44995</v>
-      </c>
-      <c r="B11" s="10">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11">
-        <v>10</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>44996</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2</v>
-      </c>
-      <c r="C12" s="11">
-        <v>10</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>44997</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11">
-        <v>10</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>44998</v>
-      </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>44999</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11">
-        <v>7</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>45000</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>45001</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
-        <v>7</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>45002</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0</v>
-      </c>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>45003</v>
-      </c>
-      <c r="B19" s="19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="20">
-        <v>0</v>
-      </c>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
-        <v>45004</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0</v>
-      </c>
-      <c r="C20" s="20">
-        <v>0</v>
-      </c>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
-        <v>45005</v>
-      </c>
-      <c r="B21" s="19">
-        <v>0</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0</v>
-      </c>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
-        <v>45006</v>
-      </c>
-      <c r="B22" s="19">
-        <v>0</v>
-      </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>45007</v>
-      </c>
-      <c r="B23" s="19">
-        <v>0</v>
-      </c>
-      <c r="C23" s="20">
-        <v>0</v>
-      </c>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>45008</v>
-      </c>
-      <c r="B24" s="19">
-        <v>0</v>
-      </c>
-      <c r="C24" s="20">
-        <v>0</v>
-      </c>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>45009</v>
-      </c>
-      <c r="B25" s="19">
-        <v>0</v>
-      </c>
-      <c r="C25" s="20">
-        <v>0</v>
-      </c>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
-        <v>45010</v>
-      </c>
-      <c r="B26" s="19">
-        <v>0</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
-        <v>45011</v>
-      </c>
-      <c r="B27" s="19">
-        <v>0</v>
-      </c>
-      <c r="C27" s="20">
-        <v>0</v>
-      </c>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
-        <v>45012</v>
-      </c>
-      <c r="B28" s="19">
-        <v>0</v>
-      </c>
-      <c r="C28" s="20">
-        <v>0</v>
-      </c>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
-        <v>45013</v>
-      </c>
-      <c r="B29" s="19">
-        <v>0</v>
-      </c>
-      <c r="C29" s="20">
-        <v>0</v>
-      </c>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
-        <v>45014</v>
-      </c>
-      <c r="B30" s="19">
-        <v>0</v>
-      </c>
-      <c r="C30" s="20">
-        <v>0</v>
-      </c>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
-        <v>45015</v>
-      </c>
-      <c r="B31" s="19">
-        <v>0</v>
-      </c>
-      <c r="C31" s="20">
-        <v>0</v>
-      </c>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
-        <v>45016</v>
-      </c>
-      <c r="B32" s="19">
-        <v>0</v>
-      </c>
-      <c r="C32" s="20">
-        <v>0</v>
-      </c>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
@@ -1622,11 +1202,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1643,32 +1223,35 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="23">
+      <c r="B2" s="24"/>
+      <c r="C2" s="22">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="24">
+      <c r="B3" s="24"/>
+      <c r="C3" s="23">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>434</v>
+        <v>2549.58</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO SID.xlsx
+++ b/ARQUIVO SID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,12 +78,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,15 +166,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -495,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,24 +506,26 @@
       <c r="A2" s="9">
         <v>44927</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10">
+        <v>9</v>
+      </c>
       <c r="C2" s="11">
         <v>57.85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="12">
         <v>44928</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="12">
         <v>44929</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
@@ -829,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="A2:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,142 +839,200 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
+      <c r="A2" s="9">
+        <v>44958</v>
+      </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="C2" s="11">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="9">
+        <v>44959</v>
+      </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9">
+        <v>44960</v>
+      </c>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9">
+        <v>44961</v>
+      </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="9">
+        <v>44962</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9">
+        <v>44963</v>
+      </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9">
+        <v>44964</v>
+      </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="9">
+        <v>44965</v>
+      </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="9">
+        <v>44966</v>
+      </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="9">
+        <v>44967</v>
+      </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="9">
+        <v>44968</v>
+      </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="9">
+        <v>44969</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9">
+        <v>44970</v>
+      </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="9">
+        <v>44971</v>
+      </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9">
+        <v>44972</v>
+      </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="9">
+        <v>44973</v>
+      </c>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="9">
+        <v>44974</v>
+      </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="9">
+        <v>44975</v>
+      </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="9">
+        <v>44976</v>
+      </c>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="9">
+        <v>44977</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="9">
+        <v>44978</v>
+      </c>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="9">
+        <v>44979</v>
+      </c>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="9">
+        <v>44980</v>
+      </c>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="9">
+        <v>44981</v>
+      </c>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="9">
+        <v>44982</v>
+      </c>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="9">
+        <v>44983</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="9">
+        <v>44984</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="9">
+        <v>44985</v>
+      </c>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
     </row>
@@ -1001,7 +1046,7 @@
       </c>
       <c r="C30" s="7">
         <f>SUM(C2:C29)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1122,79 +1167,79 @@
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
@@ -1228,30 +1273,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="22">
+      <c r="B2" s="21"/>
+      <c r="C2" s="19">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="23">
+      <c r="B3" s="21"/>
+      <c r="C3" s="20">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>2549.58</v>
+        <v>2571.58</v>
       </c>
     </row>
   </sheetData>
